--- a/output/5Y_P5_KFSDIV.xlsx
+++ b/output/5Y_P5_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-44</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-43</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-42</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-39</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-38</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-37</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-36</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-32</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-31</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-29</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-27</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-26</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1176</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3311</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3637</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6447</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.486</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.1958</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4264</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>17.107</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.8894</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4004</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>15.3877</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.6367</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.0061</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.835</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.4216</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2404</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.382</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.9583</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2036</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9136</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.4338</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9657</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3568</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.2487</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-44</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-43</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-42</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-39</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-38</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-37</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-36</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -5038,10 +5041,10 @@
         <v>153479.8061</v>
       </c>
       <c r="K14" s="1">
-        <v>100168.6625</v>
+        <v>100169.505</v>
       </c>
       <c r="L14" s="1">
-        <v>9.8782</v>
+        <v>9.878299999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-32</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -5091,7 +5094,7 @@
         <v>174115.4162</v>
       </c>
       <c r="K15" s="1">
-        <v>102971.0727</v>
+        <v>102971.9152</v>
       </c>
       <c r="L15" s="1">
         <v>9.9366</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-31</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -5144,10 +5147,10 @@
         <v>199762.3313</v>
       </c>
       <c r="K16" s="1">
-        <v>102321.6783</v>
+        <v>102325.1134</v>
       </c>
       <c r="L16" s="1">
-        <v>9.919499999999999</v>
+        <v>9.9198</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -5197,10 +5200,10 @@
         <v>210116.9121</v>
       </c>
       <c r="K17" s="1">
-        <v>101334.1053</v>
+        <v>101341.4851</v>
       </c>
       <c r="L17" s="1">
-        <v>9.888199999999999</v>
+        <v>9.8889</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-29</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -5250,10 +5253,10 @@
         <v>210390.903</v>
       </c>
       <c r="K18" s="1">
-        <v>111018.2466</v>
+        <v>111025.6263</v>
       </c>
       <c r="L18" s="1">
-        <v>10.1801</v>
+        <v>10.1808</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -5303,10 +5306,10 @@
         <v>231619.1818</v>
       </c>
       <c r="K19" s="1">
-        <v>130784.521</v>
+        <v>130791.9007</v>
       </c>
       <c r="L19" s="1">
-        <v>10.6038</v>
+        <v>10.6044</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-27</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -5356,10 +5359,10 @@
         <v>224174.4543</v>
       </c>
       <c r="K20" s="1">
-        <v>139326.2775</v>
+        <v>139333.6573</v>
       </c>
       <c r="L20" s="1">
-        <v>10.7624</v>
+        <v>10.763</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-26</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -5409,10 +5412,10 @@
         <v>229566.87</v>
       </c>
       <c r="K21" s="1">
-        <v>166846.8595</v>
+        <v>166854.2393</v>
       </c>
       <c r="L21" s="1">
-        <v>11.0289</v>
+        <v>11.0294</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -5462,10 +5465,10 @@
         <v>258978.1295</v>
       </c>
       <c r="K22" s="1">
-        <v>181402.6166</v>
+        <v>181409.9963</v>
       </c>
       <c r="L22" s="1">
-        <v>11.1219</v>
+        <v>11.1223</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -5515,10 +5518,10 @@
         <v>280933.8142</v>
       </c>
       <c r="K23" s="1">
-        <v>178730.1606</v>
+        <v>178748.2174</v>
       </c>
       <c r="L23" s="1">
-        <v>11.0969</v>
+        <v>11.0981</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -5568,10 +5571,10 @@
         <v>287035.3185</v>
       </c>
       <c r="K24" s="1">
-        <v>176766.628</v>
+        <v>176792.5326</v>
       </c>
       <c r="L24" s="1">
-        <v>11.0726</v>
+        <v>11.0742</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -5621,10 +5624,10 @@
         <v>297637.2458</v>
       </c>
       <c r="K25" s="1">
-        <v>190720.8758</v>
+        <v>190746.7804</v>
       </c>
       <c r="L25" s="1">
-        <v>11.2248</v>
+        <v>11.2263</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -5674,10 +5677,10 @@
         <v>332849.3297</v>
       </c>
       <c r="K26" s="1">
-        <v>207313.501</v>
+        <v>207339.4056</v>
       </c>
       <c r="L26" s="1">
-        <v>11.3611</v>
+        <v>11.3625</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -5727,10 +5730,10 @@
         <v>332469.4209</v>
       </c>
       <c r="K27" s="1">
-        <v>191973.8022</v>
+        <v>192060.9773</v>
       </c>
       <c r="L27" s="1">
-        <v>11.1634</v>
+        <v>11.1685</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -5780,10 +5783,10 @@
         <v>318541.6325</v>
       </c>
       <c r="K28" s="1">
-        <v>212435.4699</v>
+        <v>212522.645</v>
       </c>
       <c r="L28" s="1">
-        <v>11.385</v>
+        <v>11.3897</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -5833,10 +5836,10 @@
         <v>331553.1508</v>
       </c>
       <c r="K29" s="1">
-        <v>254186.7946</v>
+        <v>254273.9698</v>
       </c>
       <c r="L29" s="1">
-        <v>11.5245</v>
+        <v>11.5284</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -5886,10 +5889,10 @@
         <v>341238.6671</v>
       </c>
       <c r="K30" s="1">
-        <v>261035.8554</v>
+        <v>261123.0306</v>
       </c>
       <c r="L30" s="1">
-        <v>11.5466</v>
+        <v>11.5505</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -5939,10 +5942,10 @@
         <v>373153.1537</v>
       </c>
       <c r="K31" s="1">
-        <v>271364.2043</v>
+        <v>271451.3794</v>
       </c>
       <c r="L31" s="1">
-        <v>11.5777</v>
+        <v>11.5814</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -5992,10 +5995,10 @@
         <v>393649.8334</v>
       </c>
       <c r="K32" s="1">
-        <v>269574.5076</v>
+        <v>269668.8403</v>
       </c>
       <c r="L32" s="1">
-        <v>11.5697</v>
+        <v>11.5737</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -6045,10 +6048,10 @@
         <v>415900.021</v>
       </c>
       <c r="K33" s="1">
-        <v>269075.8338</v>
+        <v>269172.1606</v>
       </c>
       <c r="L33" s="1">
-        <v>11.5668</v>
+        <v>11.5709</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -6098,10 +6101,10 @@
         <v>453578.0443</v>
       </c>
       <c r="K34" s="1">
-        <v>266816.6147</v>
+        <v>266921.973</v>
       </c>
       <c r="L34" s="1">
-        <v>11.5503</v>
+        <v>11.5549</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -6151,10 +6154,10 @@
         <v>480200.5713</v>
       </c>
       <c r="K35" s="1">
-        <v>259577.9558</v>
+        <v>259712.2073</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4825</v>
+        <v>11.4884</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -6204,10 +6207,10 @@
         <v>457171.5943</v>
       </c>
       <c r="K36" s="1">
-        <v>252928.8659</v>
+        <v>253089.6803</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4063</v>
+        <v>11.4135</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -6257,10 +6260,10 @@
         <v>483389.3481</v>
       </c>
       <c r="K37" s="1">
-        <v>296130.3516</v>
+        <v>296291.166</v>
       </c>
       <c r="L37" s="1">
-        <v>11.7127</v>
+        <v>11.7191</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -6310,10 +6313,10 @@
         <v>495111.5062</v>
       </c>
       <c r="K38" s="1">
-        <v>299733.0136</v>
+        <v>299893.828</v>
       </c>
       <c r="L38" s="1">
-        <v>11.737</v>
+        <v>11.7433</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1176</v>
@@ -6363,10 +6366,10 @@
         <v>503103.6442</v>
       </c>
       <c r="K39" s="1">
-        <v>308029.6094</v>
+        <v>308190.4238</v>
       </c>
       <c r="L39" s="1">
-        <v>11.7925</v>
+        <v>11.7987</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3311</v>
@@ -6416,10 +6419,10 @@
         <v>557471.3817</v>
       </c>
       <c r="K40" s="1">
-        <v>320052.3558</v>
+        <v>320213.1702</v>
       </c>
       <c r="L40" s="1">
-        <v>11.8667</v>
+        <v>11.8727</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3637</v>
@@ -6469,10 +6472,10 @@
         <v>568302.3404</v>
       </c>
       <c r="K41" s="1">
-        <v>297299.9828</v>
+        <v>297551.7367</v>
       </c>
       <c r="L41" s="1">
-        <v>11.6636</v>
+        <v>11.6735</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6447</v>
@@ -6522,10 +6525,10 @@
         <v>559545.1568</v>
       </c>
       <c r="K42" s="1">
-        <v>306505.8008</v>
+        <v>306757.5547</v>
       </c>
       <c r="L42" s="1">
-        <v>11.7491</v>
+        <v>11.7588</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.486</v>
@@ -6575,10 +6578,10 @@
         <v>616461.7392</v>
       </c>
       <c r="K43" s="1">
-        <v>335341.3613</v>
+        <v>335593.1153</v>
       </c>
       <c r="L43" s="1">
-        <v>11.954</v>
+        <v>11.963</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.1958</v>
@@ -6628,10 +6631,10 @@
         <v>645712.9847</v>
       </c>
       <c r="K44" s="1">
-        <v>321734.0269</v>
+        <v>322040.1506</v>
       </c>
       <c r="L44" s="1">
-        <v>11.839</v>
+        <v>11.8503</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4264</v>
@@ -6681,10 +6684,10 @@
         <v>661837.0675</v>
       </c>
       <c r="K45" s="1">
-        <v>312445.6926</v>
+        <v>312788.905</v>
       </c>
       <c r="L45" s="1">
-        <v>11.7446</v>
+        <v>11.7575</v>
       </c>
       <c r="M45" s="1">
         <v>0.75</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>17.107</v>
@@ -6734,10 +6737,10 @@
         <v>708008.3239</v>
       </c>
       <c r="K46" s="1">
-        <v>316337.1432</v>
+        <v>316680.3556</v>
       </c>
       <c r="L46" s="1">
-        <v>11.7861</v>
+        <v>11.7989</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.8894</v>
@@ -6787,10 +6790,10 @@
         <v>712283.4281</v>
       </c>
       <c r="K47" s="1">
-        <v>308074.5713</v>
+        <v>308450.8026</v>
       </c>
       <c r="L47" s="1">
-        <v>11.6882</v>
+        <v>11.7025</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4004</v>
@@ -6840,10 +6843,10 @@
         <v>732624.4774</v>
       </c>
       <c r="K48" s="1">
-        <v>323862.5323</v>
+        <v>324238.7636</v>
       </c>
       <c r="L48" s="1">
-        <v>11.8672</v>
+        <v>11.881</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>15.3877</v>
@@ -6893,10 +6896,10 @@
         <v>713508.3589</v>
       </c>
       <c r="K49" s="1">
-        <v>347273.9598</v>
+        <v>347650.1911</v>
       </c>
       <c r="L49" s="1">
-        <v>12.0937</v>
+        <v>12.1068</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.6367</v>
@@ -6946,10 +6949,10 @@
         <v>699925.2278</v>
       </c>
       <c r="K50" s="1">
-        <v>386453.0081</v>
+        <v>386829.2394</v>
       </c>
       <c r="L50" s="1">
-        <v>12.364</v>
+        <v>12.376</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.0061</v>
@@ -6999,10 +7002,10 @@
         <v>655203.9359</v>
       </c>
       <c r="K51" s="1">
-        <v>420013.7075</v>
+        <v>420389.9387</v>
       </c>
       <c r="L51" s="1">
-        <v>12.521</v>
+        <v>12.5323</v>
       </c>
       <c r="M51" s="1">
         <v>0.5</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.835</v>
@@ -7052,10 +7055,10 @@
         <v>711903.9435000001</v>
       </c>
       <c r="K52" s="1">
-        <v>484860.1454</v>
+        <v>485236.3767</v>
       </c>
       <c r="L52" s="1">
-        <v>12.5871</v>
+        <v>12.5968</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.4216</v>
@@ -7105,10 +7108,10 @@
         <v>743530.5468</v>
       </c>
       <c r="K53" s="1">
-        <v>462908.257</v>
+        <v>463372.2154</v>
       </c>
       <c r="L53" s="1">
-        <v>12.5324</v>
+        <v>12.5449</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2404</v>
@@ -7158,10 +7161,10 @@
         <v>710937.8615999999</v>
       </c>
       <c r="K54" s="1">
-        <v>451235.0433</v>
+        <v>451745.6121</v>
       </c>
       <c r="L54" s="1">
-        <v>12.4895</v>
+        <v>12.5036</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.382</v>
@@ -7211,10 +7214,10 @@
         <v>699371.8002000001</v>
       </c>
       <c r="K55" s="1">
-        <v>504038.6739</v>
+        <v>504549.2428</v>
       </c>
       <c r="L55" s="1">
-        <v>12.5666</v>
+        <v>12.5794</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.9583</v>
@@ -7264,10 +7267,10 @@
         <v>690717.7089</v>
       </c>
       <c r="K56" s="1">
-        <v>548578.3541999999</v>
+        <v>549088.9231</v>
       </c>
       <c r="L56" s="1">
-        <v>12.5535</v>
+        <v>12.5652</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2036</v>
@@ -7317,10 +7320,10 @@
         <v>711885.0905</v>
       </c>
       <c r="K57" s="1">
-        <v>577168.676</v>
+        <v>577679.2449</v>
       </c>
       <c r="L57" s="1">
-        <v>12.5239</v>
+        <v>12.535</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9136</v>
@@ -7370,10 +7373,10 @@
         <v>771057.2365999999</v>
       </c>
       <c r="K58" s="1">
-        <v>575881.8569</v>
+        <v>576397.5717</v>
       </c>
       <c r="L58" s="1">
-        <v>12.5246</v>
+        <v>12.5358</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.4338</v>
@@ -7423,10 +7426,10 @@
         <v>804015.9262</v>
       </c>
       <c r="K59" s="1">
-        <v>553209.8199999999</v>
+        <v>553816.1213999999</v>
       </c>
       <c r="L59" s="1">
-        <v>12.5082</v>
+        <v>12.5219</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9657</v>
@@ -7476,10 +7479,10 @@
         <v>793808.5703</v>
       </c>
       <c r="K60" s="1">
-        <v>540199.129</v>
+        <v>540857.4318</v>
       </c>
       <c r="L60" s="1">
-        <v>12.4869</v>
+        <v>12.5021</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3568</v>
@@ -7529,10 +7532,10 @@
         <v>833163.9894</v>
       </c>
       <c r="K61" s="1">
-        <v>570527.643</v>
+        <v>571185.9458</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5127</v>
+        <v>12.5272</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.2487</v>
@@ -7582,10 +7585,10 @@
         <v>838307.3117</v>
       </c>
       <c r="K62" s="1">
-        <v>562700.3292</v>
+        <v>563389.9211</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5014</v>
+        <v>12.5167</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-44</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-43</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-42</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-39</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-38</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-37</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-36</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-32</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-31</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -8456,10 +8459,10 @@
         <v>201273.5559</v>
       </c>
       <c r="K16" s="1">
-        <v>106082.688</v>
+        <v>106083.8996</v>
       </c>
       <c r="L16" s="1">
-        <v>9.954000000000001</v>
+        <v>9.9542</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -8509,10 +8512,10 @@
         <v>211640.8201</v>
       </c>
       <c r="K17" s="1">
-        <v>105455.5596</v>
+        <v>105459.2762</v>
       </c>
       <c r="L17" s="1">
-        <v>9.935</v>
+        <v>9.9353</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-29</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -8562,10 +8565,10 @@
         <v>211539.8542</v>
       </c>
       <c r="K18" s="1">
-        <v>115906.9127</v>
+        <v>115910.6292</v>
       </c>
       <c r="L18" s="1">
-        <v>10.2354</v>
+        <v>10.2358</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -8615,10 +8618,10 @@
         <v>233201.3096</v>
       </c>
       <c r="K19" s="1">
-        <v>136880.6126</v>
+        <v>136884.3291</v>
       </c>
       <c r="L19" s="1">
-        <v>10.6608</v>
+        <v>10.661</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-27</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -8668,10 +8671,10 @@
         <v>224993.2195</v>
       </c>
       <c r="K20" s="1">
-        <v>146249.3254</v>
+        <v>146253.042</v>
       </c>
       <c r="L20" s="1">
-        <v>10.8246</v>
+        <v>10.8249</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-26</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -8721,10 +8724,10 @@
         <v>230170.5736</v>
       </c>
       <c r="K21" s="1">
-        <v>175476.0732</v>
+        <v>175479.7898</v>
       </c>
       <c r="L21" s="1">
-        <v>11.086</v>
+        <v>11.0863</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -8774,10 +8777,10 @@
         <v>260512.0767</v>
       </c>
       <c r="K22" s="1">
-        <v>191238.8822</v>
+        <v>191242.5987</v>
       </c>
       <c r="L22" s="1">
-        <v>11.1777</v>
+        <v>11.178</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -8827,10 +8830,10 @@
         <v>283084.9088</v>
       </c>
       <c r="K23" s="1">
-        <v>188997.236</v>
+        <v>189009.9084</v>
       </c>
       <c r="L23" s="1">
-        <v>11.1584</v>
+        <v>11.1591</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -8880,10 +8883,10 @@
         <v>288974.7547</v>
       </c>
       <c r="K24" s="1">
-        <v>187522.7111</v>
+        <v>187541.2768</v>
       </c>
       <c r="L24" s="1">
-        <v>11.1414</v>
+        <v>11.1425</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -8933,10 +8936,10 @@
         <v>299589.386</v>
       </c>
       <c r="K25" s="1">
-        <v>202853.8399</v>
+        <v>202872.4057</v>
       </c>
       <c r="L25" s="1">
-        <v>11.2953</v>
+        <v>11.2963</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -8986,10 +8989,10 @@
         <v>336303.33</v>
       </c>
       <c r="K26" s="1">
-        <v>221040.1863</v>
+        <v>221058.7521</v>
       </c>
       <c r="L26" s="1">
-        <v>11.4313</v>
+        <v>11.4323</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -9039,10 +9042,10 @@
         <v>335276.0823</v>
       </c>
       <c r="K27" s="1">
-        <v>205462.9039</v>
+        <v>205543.6892</v>
       </c>
       <c r="L27" s="1">
-        <v>11.2465</v>
+        <v>11.2509</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -9092,10 +9095,10 @@
         <v>319767.6627</v>
       </c>
       <c r="K28" s="1">
-        <v>227907.7906</v>
+        <v>227988.5759</v>
       </c>
       <c r="L28" s="1">
-        <v>11.4679</v>
+        <v>11.472</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -9145,10 +9148,10 @@
         <v>332980.8461</v>
       </c>
       <c r="K29" s="1">
-        <v>273112.8237</v>
+        <v>273193.6089</v>
       </c>
       <c r="L29" s="1">
-        <v>11.5964</v>
+        <v>11.5998</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -9198,10 +9201,10 @@
         <v>342641.1959</v>
       </c>
       <c r="K30" s="1">
-        <v>281192.8603</v>
+        <v>281273.6456</v>
       </c>
       <c r="L30" s="1">
-        <v>11.6189</v>
+        <v>11.6223</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -9251,10 +9254,10 @@
         <v>376130.1223</v>
       </c>
       <c r="K31" s="1">
-        <v>293046.2711</v>
+        <v>293127.0564</v>
       </c>
       <c r="L31" s="1">
-        <v>11.6494</v>
+        <v>11.6526</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -9304,10 +9307,10 @@
         <v>397424.5555</v>
       </c>
       <c r="K32" s="1">
-        <v>291952.4474</v>
+        <v>292037.6072</v>
       </c>
       <c r="L32" s="1">
-        <v>11.6451</v>
+        <v>11.6485</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -9357,10 +9360,10 @@
         <v>420638.2283</v>
       </c>
       <c r="K33" s="1">
-        <v>292273.298</v>
+        <v>292358.4578</v>
       </c>
       <c r="L33" s="1">
-        <v>11.6467</v>
+        <v>11.6501</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -9410,10 +9413,10 @@
         <v>460543.6144</v>
       </c>
       <c r="K34" s="1">
-        <v>290724.2204</v>
+        <v>290815.5729</v>
       </c>
       <c r="L34" s="1">
-        <v>11.6367</v>
+        <v>11.6403</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -9463,10 +9466,10 @@
         <v>488567.303</v>
       </c>
       <c r="K35" s="1">
-        <v>283814.3739</v>
+        <v>283933.3071</v>
       </c>
       <c r="L35" s="1">
-        <v>11.5786</v>
+        <v>11.5834</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -9516,10 +9519,10 @@
         <v>462662.3034</v>
       </c>
       <c r="K36" s="1">
-        <v>277554.7617</v>
+        <v>277698.7018</v>
       </c>
       <c r="L36" s="1">
-        <v>11.5142</v>
+        <v>11.5202</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -9569,10 +9572,10 @@
         <v>490306.2149</v>
       </c>
       <c r="K37" s="1">
-        <v>325499.2382</v>
+        <v>325643.1783</v>
       </c>
       <c r="L37" s="1">
-        <v>11.8127</v>
+        <v>11.818</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -9622,10 +9625,10 @@
         <v>502183.9626</v>
       </c>
       <c r="K38" s="1">
-        <v>330438.2958</v>
+        <v>330582.2359</v>
       </c>
       <c r="L38" s="1">
-        <v>11.842</v>
+        <v>11.8472</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1176</v>
@@ -9675,10 +9678,10 @@
         <v>509980.311</v>
       </c>
       <c r="K39" s="1">
-        <v>340548.0138</v>
+        <v>340691.9539</v>
       </c>
       <c r="L39" s="1">
-        <v>11.9011</v>
+        <v>11.9062</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3311</v>
@@ -9728,10 +9731,10 @@
         <v>568672.1377</v>
       </c>
       <c r="K40" s="1">
-        <v>354794.8309</v>
+        <v>354938.771</v>
       </c>
       <c r="L40" s="1">
-        <v>11.9775</v>
+        <v>11.9823</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3637</v>
@@ -9781,10 +9784,10 @@
         <v>579587.1324999999</v>
       </c>
       <c r="K41" s="1">
-        <v>330914.0588</v>
+        <v>331153.4486</v>
       </c>
       <c r="L41" s="1">
-        <v>11.79</v>
+        <v>11.7985</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6447</v>
@@ -9834,10 +9837,10 @@
         <v>568875.2907</v>
       </c>
       <c r="K42" s="1">
-        <v>342191.3223</v>
+        <v>342430.7122</v>
       </c>
       <c r="L42" s="1">
-        <v>11.8817</v>
+        <v>11.89</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.486</v>
@@ -9887,10 +9890,10 @@
         <v>630732.2720999999</v>
       </c>
       <c r="K43" s="1">
-        <v>375197.8648</v>
+        <v>375437.2546</v>
       </c>
       <c r="L43" s="1">
-        <v>12.084</v>
+        <v>12.0917</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.1958</v>
@@ -9940,10 +9943,10 @@
         <v>662094.985</v>
       </c>
       <c r="K44" s="1">
-        <v>361342.5817</v>
+        <v>361637.3319</v>
       </c>
       <c r="L44" s="1">
-        <v>11.9823</v>
+        <v>11.9921</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4264</v>
@@ -9993,10 +9996,10 @@
         <v>678908.3223</v>
       </c>
       <c r="K45" s="1">
-        <v>352273.9844</v>
+        <v>352604.946</v>
       </c>
       <c r="L45" s="1">
-        <v>11.9022</v>
+        <v>11.9133</v>
       </c>
       <c r="M45" s="1">
         <v>0.75</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>17.107</v>
@@ -10046,10 +10049,10 @@
         <v>729197.9846</v>
       </c>
       <c r="K46" s="1">
-        <v>357874.9831</v>
+        <v>358205.9447</v>
       </c>
       <c r="L46" s="1">
-        <v>11.954</v>
+        <v>11.965</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.8894</v>
@@ -10099,10 +10102,10 @@
         <v>732795.7492</v>
       </c>
       <c r="K47" s="1">
-        <v>349963.5778</v>
+        <v>350326.1549</v>
       </c>
       <c r="L47" s="1">
-        <v>11.8727</v>
+        <v>11.885</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4004</v>
@@ -10152,10 +10155,10 @@
         <v>754316.3565</v>
       </c>
       <c r="K48" s="1">
-        <v>368957.8945</v>
+        <v>369320.4716</v>
       </c>
       <c r="L48" s="1">
-        <v>12.058</v>
+        <v>12.0698</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>15.3877</v>
@@ -10205,10 +10208,10 @@
         <v>731581.1169</v>
       </c>
       <c r="K49" s="1">
-        <v>396579.2326</v>
+        <v>396941.8098</v>
       </c>
       <c r="L49" s="1">
-        <v>12.2858</v>
+        <v>12.2971</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.6367</v>
@@ -10258,10 +10261,10 @@
         <v>714996.8669</v>
       </c>
       <c r="K50" s="1">
-        <v>442027.3</v>
+        <v>442389.8772</v>
       </c>
       <c r="L50" s="1">
-        <v>12.548</v>
+        <v>12.5582</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.0061</v>
@@ -10311,10 +10314,10 @@
         <v>663158.3195</v>
       </c>
       <c r="K51" s="1">
-        <v>481291.7539</v>
+        <v>481654.3311</v>
       </c>
       <c r="L51" s="1">
-        <v>12.6976</v>
+        <v>12.7071</v>
       </c>
       <c r="M51" s="1">
         <v>0.5</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.835</v>
@@ -10364,10 +10367,10 @@
         <v>726015.4344</v>
       </c>
       <c r="K52" s="1">
-        <v>556040.6614</v>
+        <v>556403.2385</v>
       </c>
       <c r="L52" s="1">
-        <v>12.7415</v>
+        <v>12.7498</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.4216</v>
@@ -10417,10 +10420,10 @@
         <v>760580.0283</v>
       </c>
       <c r="K53" s="1">
-        <v>532680.5525</v>
+        <v>533136.4845</v>
       </c>
       <c r="L53" s="1">
-        <v>12.6965</v>
+        <v>12.7074</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2404</v>
@@ -10470,10 +10473,10 @@
         <v>722075.1255</v>
       </c>
       <c r="K54" s="1">
-        <v>520965.601</v>
+        <v>521468.3101</v>
       </c>
       <c r="L54" s="1">
-        <v>12.6619</v>
+        <v>12.6742</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.382</v>
@@ -10523,10 +10526,10 @@
         <v>707407.2367</v>
       </c>
       <c r="K55" s="1">
-        <v>582677.9402</v>
+        <v>583180.6493</v>
       </c>
       <c r="L55" s="1">
-        <v>12.7234</v>
+        <v>12.7344</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.9583</v>
@@ -10576,10 +10579,10 @@
         <v>696046.9758</v>
       </c>
       <c r="K56" s="1">
-        <v>635146.6737</v>
+        <v>635649.3827</v>
       </c>
       <c r="L56" s="1">
-        <v>12.6966</v>
+        <v>12.7067</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2036</v>
@@ -10629,10 +10632,10 @@
         <v>718857.9874</v>
       </c>
       <c r="K57" s="1">
-        <v>669525.4406</v>
+        <v>670028.1497</v>
       </c>
       <c r="L57" s="1">
-        <v>12.6579</v>
+        <v>12.6674</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9136</v>
@@ -10682,10 +10685,10 @@
         <v>785391.7378</v>
       </c>
       <c r="K58" s="1">
-        <v>669734.1209</v>
+        <v>670236.83</v>
       </c>
       <c r="L58" s="1">
-        <v>12.6577</v>
+        <v>12.6672</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.4338</v>
@@ -10735,10 +10738,10 @@
         <v>821880.2699</v>
       </c>
       <c r="K59" s="1">
-        <v>645366.071</v>
+        <v>645966.1431</v>
       </c>
       <c r="L59" s="1">
-        <v>12.6473</v>
+        <v>12.6591</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9657</v>
@@ -10788,10 +10791,10 @@
         <v>808505.0873</v>
       </c>
       <c r="K60" s="1">
-        <v>632112.7483</v>
+        <v>632765.7915000001</v>
       </c>
       <c r="L60" s="1">
-        <v>12.6313</v>
+        <v>12.6444</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3568</v>
@@ -10841,10 +10844,10 @@
         <v>852509.1709</v>
       </c>
       <c r="K61" s="1">
-        <v>668989.8712000001</v>
+        <v>669642.9144</v>
       </c>
       <c r="L61" s="1">
-        <v>12.6507</v>
+        <v>12.663</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.2487</v>
@@ -10894,10 +10897,10 @@
         <v>856861.6617000001</v>
       </c>
       <c r="K62" s="1">
-        <v>661742.559</v>
+        <v>662424.5728</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6431</v>
+        <v>12.6561</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-44</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-43</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-42</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-39</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-38</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-37</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-36</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-32</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-31</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -11821,10 +11824,10 @@
         <v>213215.2537</v>
       </c>
       <c r="K17" s="1">
-        <v>109772.4833</v>
+        <v>109773.4144</v>
       </c>
       <c r="L17" s="1">
-        <v>9.9817</v>
+        <v>9.9818</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-29</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -11874,7 +11877,7 @@
         <v>212721.3056</v>
       </c>
       <c r="K18" s="1">
-        <v>121046.743</v>
+        <v>121047.6741</v>
       </c>
       <c r="L18" s="1">
         <v>10.2907</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -11927,10 +11930,10 @@
         <v>234836.7915</v>
       </c>
       <c r="K19" s="1">
-        <v>143310.3643</v>
+        <v>143311.2954</v>
       </c>
       <c r="L19" s="1">
-        <v>10.7175</v>
+        <v>10.7176</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-27</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -11980,7 +11983,7 @@
         <v>225823.2993</v>
       </c>
       <c r="K20" s="1">
-        <v>153576.4828</v>
+        <v>153577.4139</v>
       </c>
       <c r="L20" s="1">
         <v>10.8866</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-26</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -12033,10 +12036,10 @@
         <v>230772.9099</v>
       </c>
       <c r="K21" s="1">
-        <v>184634.5507</v>
+        <v>184635.4819</v>
       </c>
       <c r="L21" s="1">
-        <v>11.1427</v>
+        <v>11.1428</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -12086,7 +12089,7 @@
         <v>262101.1473</v>
       </c>
       <c r="K22" s="1">
-        <v>201710.1336</v>
+        <v>201711.0647</v>
       </c>
       <c r="L22" s="1">
         <v>11.233</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -12139,10 +12142,10 @@
         <v>285331.6462</v>
       </c>
       <c r="K23" s="1">
-        <v>199965.074</v>
+        <v>199972.977</v>
       </c>
       <c r="L23" s="1">
-        <v>11.2191</v>
+        <v>11.2195</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -12192,10 +12195,10 @@
         <v>290995.1747</v>
       </c>
       <c r="K24" s="1">
-        <v>199054.8565</v>
+        <v>199066.3975</v>
       </c>
       <c r="L24" s="1">
-        <v>11.2094</v>
+        <v>11.21</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -12245,10 +12248,10 @@
         <v>301621.8551</v>
       </c>
       <c r="K25" s="1">
-        <v>215905.8121</v>
+        <v>215917.3531</v>
       </c>
       <c r="L25" s="1">
-        <v>11.3648</v>
+        <v>11.3654</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -12298,10 +12301,10 @@
         <v>339952.376</v>
       </c>
       <c r="K26" s="1">
-        <v>235854.2396</v>
+        <v>235865.7806</v>
       </c>
       <c r="L26" s="1">
-        <v>11.5004</v>
+        <v>11.5009</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -12351,10 +12354,10 @@
         <v>338225.9026</v>
       </c>
       <c r="K27" s="1">
-        <v>220078.2899</v>
+        <v>220152.8439</v>
       </c>
       <c r="L27" s="1">
-        <v>11.3282</v>
+        <v>11.332</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -12404,10 +12407,10 @@
         <v>321002.3812</v>
       </c>
       <c r="K28" s="1">
-        <v>244727.5747</v>
+        <v>244802.1287</v>
       </c>
       <c r="L28" s="1">
-        <v>11.5495</v>
+        <v>11.553</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -12457,10 +12460,10 @@
         <v>334434.6551</v>
       </c>
       <c r="K29" s="1">
-        <v>293743.3844</v>
+        <v>293817.9384</v>
       </c>
       <c r="L29" s="1">
-        <v>11.6669</v>
+        <v>11.6698</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -12510,10 +12513,10 @@
         <v>344067.2691</v>
       </c>
       <c r="K30" s="1">
-        <v>303235.3199</v>
+        <v>303309.8739</v>
       </c>
       <c r="L30" s="1">
-        <v>11.6895</v>
+        <v>11.6923</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -12563,10 +12566,10 @@
         <v>379277.0907</v>
       </c>
       <c r="K31" s="1">
-        <v>316831.9675</v>
+        <v>316906.5215</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7191</v>
+        <v>11.7219</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -12616,10 +12619,10 @@
         <v>401447.9529</v>
       </c>
       <c r="K32" s="1">
-        <v>316585.3129</v>
+        <v>316660.8533</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7183</v>
+        <v>11.7211</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -12669,10 +12672,10 @@
         <v>425721.1822</v>
       </c>
       <c r="K33" s="1">
-        <v>317898.1895</v>
+        <v>317973.73</v>
       </c>
       <c r="L33" s="1">
-        <v>11.7243</v>
+        <v>11.7271</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -12722,10 +12725,10 @@
         <v>468087.1967</v>
       </c>
       <c r="K34" s="1">
-        <v>317230.3147</v>
+        <v>317308.525</v>
       </c>
       <c r="L34" s="1">
-        <v>11.7204</v>
+        <v>11.7233</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -12775,10 +12778,10 @@
         <v>497666.0193</v>
       </c>
       <c r="K35" s="1">
-        <v>310789.5091</v>
+        <v>310893.428</v>
       </c>
       <c r="L35" s="1">
-        <v>11.672</v>
+        <v>11.6759</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -12828,10 +12831,10 @@
         <v>468558.0605</v>
       </c>
       <c r="K36" s="1">
-        <v>305074.7572</v>
+        <v>305201.5063</v>
       </c>
       <c r="L36" s="1">
-        <v>11.6193</v>
+        <v>11.6242</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -12881,10 +12884,10 @@
         <v>497791.9625</v>
       </c>
       <c r="K37" s="1">
-        <v>358421.5059</v>
+        <v>358548.255</v>
       </c>
       <c r="L37" s="1">
-        <v>11.9101</v>
+        <v>11.9143</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -12934,10 +12937,10 @@
         <v>509843.6824</v>
       </c>
       <c r="K38" s="1">
-        <v>364981.8933</v>
+        <v>365108.6425</v>
       </c>
       <c r="L38" s="1">
-        <v>11.9441</v>
+        <v>11.9483</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1176</v>
@@ -12987,10 +12990,10 @@
         <v>517419.2255</v>
       </c>
       <c r="K39" s="1">
-        <v>377260.7126</v>
+        <v>377387.4617</v>
       </c>
       <c r="L39" s="1">
-        <v>12.0067</v>
+        <v>12.0107</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3311</v>
@@ -13040,10 +13043,10 @@
         <v>580988.0274</v>
       </c>
       <c r="K40" s="1">
-        <v>394154.3691</v>
+        <v>394281.1182</v>
       </c>
       <c r="L40" s="1">
-        <v>12.085</v>
+        <v>12.0889</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3637</v>
@@ -13093,10 +13096,10 @@
         <v>591998.2228</v>
       </c>
       <c r="K41" s="1">
-        <v>369152.822</v>
+        <v>369379.5005</v>
       </c>
       <c r="L41" s="1">
-        <v>11.9129</v>
+        <v>11.9202</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6447</v>
@@ -13146,10 +13149,10 @@
         <v>579063.8281</v>
       </c>
       <c r="K42" s="1">
-        <v>382938.9262</v>
+        <v>383165.6047</v>
       </c>
       <c r="L42" s="1">
-        <v>12.0107</v>
+        <v>12.0178</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.486</v>
@@ -13199,10 +13202,10 @@
         <v>646545.8855</v>
       </c>
       <c r="K43" s="1">
-        <v>420858.3131</v>
+        <v>421084.9916</v>
       </c>
       <c r="L43" s="1">
-        <v>12.2104</v>
+        <v>12.217</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.1958</v>
@@ -13252,10 +13255,10 @@
         <v>680325.2941000001</v>
       </c>
       <c r="K44" s="1">
-        <v>406901.383</v>
+        <v>407183.828</v>
       </c>
       <c r="L44" s="1">
-        <v>12.1218</v>
+        <v>12.1302</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4264</v>
@@ -13305,10 +13308,10 @@
         <v>697930.2341999999</v>
       </c>
       <c r="K45" s="1">
-        <v>398275.4294</v>
+        <v>398592.3183</v>
       </c>
       <c r="L45" s="1">
-        <v>12.0557</v>
+        <v>12.0653</v>
       </c>
       <c r="M45" s="1">
         <v>0.75</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>17.107</v>
@@ -13358,10 +13361,10 @@
         <v>752957.3583</v>
       </c>
       <c r="K46" s="1">
-        <v>406041.2659</v>
+        <v>406358.1548</v>
       </c>
       <c r="L46" s="1">
-        <v>12.1177</v>
+        <v>12.1272</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.8894</v>
@@ -13411,10 +13414,10 @@
         <v>755771.8413</v>
       </c>
       <c r="K47" s="1">
-        <v>398746.6231</v>
+        <v>399092.6628</v>
       </c>
       <c r="L47" s="1">
-        <v>12.0531</v>
+        <v>12.0636</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4004</v>
@@ -13464,10 +13467,10 @@
         <v>778649.1777999999</v>
       </c>
       <c r="K48" s="1">
-        <v>421671.8226</v>
+        <v>422017.8623</v>
       </c>
       <c r="L48" s="1">
-        <v>12.2447</v>
+        <v>12.2547</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>15.3877</v>
@@ -13517,10 +13520,10 @@
         <v>751698.9875</v>
       </c>
       <c r="K49" s="1">
-        <v>454412.6383</v>
+        <v>454758.678</v>
       </c>
       <c r="L49" s="1">
-        <v>12.4738</v>
+        <v>12.4833</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.6367</v>
@@ -13570,10 +13573,10 @@
         <v>731607.3146</v>
       </c>
       <c r="K50" s="1">
-        <v>507406.2861</v>
+        <v>507752.3258</v>
       </c>
       <c r="L50" s="1">
-        <v>12.7276</v>
+        <v>12.7363</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.0061</v>
@@ -13623,10 +13626,10 @@
         <v>671423.2311</v>
       </c>
       <c r="K51" s="1">
-        <v>553593.0451</v>
+        <v>553939.0848</v>
       </c>
       <c r="L51" s="1">
-        <v>12.8695</v>
+        <v>12.8776</v>
       </c>
       <c r="M51" s="1">
         <v>0.5</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.835</v>
@@ -13676,10 +13679,10 @@
         <v>741515.2996</v>
       </c>
       <c r="K52" s="1">
-        <v>640222.3924</v>
+        <v>640568.4321</v>
       </c>
       <c r="L52" s="1">
-        <v>12.8913</v>
+        <v>12.8983</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.4216</v>
@@ -13729,10 +13732,10 @@
         <v>779548.3872</v>
       </c>
       <c r="K53" s="1">
-        <v>615488.5612</v>
+        <v>615933.4456</v>
       </c>
       <c r="L53" s="1">
-        <v>12.8551</v>
+        <v>12.8644</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2404</v>
@@ -13782,10 +13785,10 @@
         <v>734039.5586</v>
       </c>
       <c r="K54" s="1">
-        <v>604020.4635</v>
+        <v>604511.1394</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8282</v>
+        <v>12.8386</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.382</v>
@@ -13835,10 +13838,10 @@
         <v>715675.8529000001</v>
       </c>
       <c r="K55" s="1">
-        <v>676596.1142</v>
+        <v>677086.7901</v>
       </c>
       <c r="L55" s="1">
-        <v>12.8739</v>
+        <v>12.8832</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.9583</v>
@@ -13888,10 +13891,10 @@
         <v>701086.3007</v>
       </c>
       <c r="K56" s="1">
-        <v>738813.9786</v>
+        <v>739304.6544</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8332</v>
+        <v>12.8417</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2036</v>
@@ -13941,10 +13944,10 @@
         <v>725574.2201</v>
       </c>
       <c r="K57" s="1">
-        <v>762830.6277</v>
+        <v>763321.3035</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8046</v>
+        <v>12.8128</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9136</v>
@@ -13994,10 +13997,10 @@
         <v>799775.4179999999</v>
       </c>
       <c r="K58" s="1">
-        <v>772830.6277</v>
+        <v>773321.3035</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7968</v>
+        <v>12.8049</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.4338</v>
@@ -14047,10 +14050,10 @@
         <v>840518.6307</v>
       </c>
       <c r="K59" s="1">
-        <v>757709.6631</v>
+        <v>758260.755</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7939</v>
+        <v>12.8033</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9657</v>
@@ -14100,10 +14103,10 @@
         <v>823311.844</v>
       </c>
       <c r="K60" s="1">
-        <v>744546.5189</v>
+        <v>745150.2216</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7828</v>
+        <v>12.7931</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3568</v>
@@ -14153,10 +14156,10 @@
         <v>872949.0383</v>
       </c>
       <c r="K61" s="1">
-        <v>789742.8646</v>
+        <v>790346.5672</v>
       </c>
       <c r="L61" s="1">
-        <v>12.7945</v>
+        <v>12.8043</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.2487</v>
@@ -14206,10 +14209,10 @@
         <v>876338.3171</v>
       </c>
       <c r="K62" s="1">
-        <v>783614.1806</v>
+        <v>784242.3822</v>
       </c>
       <c r="L62" s="1">
-        <v>12.7901</v>
+        <v>12.8004</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-44</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-43</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-42</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-39</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-38</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-37</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-36</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-32</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-31</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-29</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-27</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-26</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -15451,10 +15454,10 @@
         <v>287678.2783</v>
       </c>
       <c r="K23" s="1">
-        <v>211683.3537</v>
+        <v>211688.05</v>
       </c>
       <c r="L23" s="1">
-        <v>11.2789</v>
+        <v>11.2792</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -15504,10 +15507,10 @@
         <v>293099.7467</v>
       </c>
       <c r="K24" s="1">
-        <v>211421.3683</v>
+        <v>211427.1117</v>
       </c>
       <c r="L24" s="1">
-        <v>11.2763</v>
+        <v>11.2767</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -15557,10 +15560,10 @@
         <v>303737.6466</v>
       </c>
       <c r="K25" s="1">
-        <v>229949.5635</v>
+        <v>229955.3069</v>
       </c>
       <c r="L25" s="1">
-        <v>11.4332</v>
+        <v>11.4335</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -15610,10 +15613,10 @@
         <v>343808.8619</v>
       </c>
       <c r="K26" s="1">
-        <v>251846.0575</v>
+        <v>251851.8009</v>
       </c>
       <c r="L26" s="1">
-        <v>11.5682</v>
+        <v>11.5685</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -15663,10 +15666,10 @@
         <v>341326.8042</v>
       </c>
       <c r="K27" s="1">
-        <v>235918.7011</v>
+        <v>235988.0623</v>
       </c>
       <c r="L27" s="1">
-        <v>11.4084</v>
+        <v>11.4118</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-19</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -15716,10 +15719,10 @@
         <v>322241.388</v>
       </c>
       <c r="K28" s="1">
-        <v>263018.4953</v>
+        <v>263087.8565</v>
       </c>
       <c r="L28" s="1">
-        <v>11.6295</v>
+        <v>11.6326</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -15769,10 +15772,10 @@
         <v>335911.8028</v>
       </c>
       <c r="K29" s="1">
-        <v>316241.0547</v>
+        <v>316310.4159</v>
       </c>
       <c r="L29" s="1">
-        <v>11.7357</v>
+        <v>11.7383</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -15822,10 +15825,10 @@
         <v>345513.8312</v>
       </c>
       <c r="K30" s="1">
-        <v>327350.4209</v>
+        <v>327419.7821</v>
       </c>
       <c r="L30" s="1">
-        <v>11.7582</v>
+        <v>11.7607</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -15875,10 +15878,10 @@
         <v>382440.3269</v>
       </c>
       <c r="K31" s="1">
-        <v>338403.036</v>
+        <v>338472.3971</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7788</v>
+        <v>11.7812</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -15928,10 +15931,10 @@
         <v>405552.7282</v>
       </c>
       <c r="K32" s="1">
-        <v>343899.5949</v>
+        <v>343968.9561</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7955</v>
+        <v>11.7979</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -15981,10 +15984,10 @@
         <v>430994.445</v>
       </c>
       <c r="K33" s="1">
-        <v>346406.0356</v>
+        <v>346475.3968</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8056</v>
+        <v>11.808</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -16034,10 +16037,10 @@
         <v>476079.264</v>
       </c>
       <c r="K34" s="1">
-        <v>346821.2204</v>
+        <v>346890.5816</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8078</v>
+        <v>11.8101</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -16087,10 +16090,10 @@
         <v>507385.6224</v>
       </c>
       <c r="K35" s="1">
-        <v>341018.9318</v>
+        <v>341111.4528</v>
       </c>
       <c r="L35" s="1">
-        <v>11.7688</v>
+        <v>11.772</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -16140,10 +16143,10 @@
         <v>474707.2381</v>
       </c>
       <c r="K36" s="1">
-        <v>336037.4645</v>
+        <v>336149.8864</v>
       </c>
       <c r="L36" s="1">
-        <v>11.7279</v>
+        <v>11.7318</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -16193,10 +16196,10 @@
         <v>505715.5005</v>
       </c>
       <c r="K37" s="1">
-        <v>395543.4271</v>
+        <v>395655.8489</v>
       </c>
       <c r="L37" s="1">
-        <v>12.0101</v>
+        <v>12.0135</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -16246,10 +16249,10 @@
         <v>517961.9473</v>
       </c>
       <c r="K38" s="1">
-        <v>404064.1492</v>
+        <v>404176.571</v>
       </c>
       <c r="L38" s="1">
-        <v>12.0486</v>
+        <v>12.052</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-8</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1176</v>
@@ -16299,10 +16302,10 @@
         <v>525288.1737</v>
       </c>
       <c r="K39" s="1">
-        <v>418934.4737</v>
+        <v>419046.8955</v>
       </c>
       <c r="L39" s="1">
-        <v>12.1143</v>
+        <v>12.1176</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>15.3311</v>
@@ -16352,10 +16355,10 @@
         <v>594364.2498</v>
       </c>
       <c r="K40" s="1">
-        <v>438976.6738</v>
+        <v>439089.0957</v>
       </c>
       <c r="L40" s="1">
-        <v>12.1943</v>
+        <v>12.1974</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3637</v>
@@ -16405,10 +16408,10 @@
         <v>605482.4365</v>
       </c>
       <c r="K41" s="1">
-        <v>412886.0543</v>
+        <v>413102.7585</v>
       </c>
       <c r="L41" s="1">
-        <v>12.0374</v>
+        <v>12.0437</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6447</v>
@@ -16458,10 +16461,10 @@
         <v>590017.3108</v>
       </c>
       <c r="K42" s="1">
-        <v>429707.1695</v>
+        <v>429923.8736</v>
       </c>
       <c r="L42" s="1">
-        <v>12.1411</v>
+        <v>12.1472</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.486</v>
@@ -16511,10 +16514,10 @@
         <v>663913.2913</v>
       </c>
       <c r="K43" s="1">
-        <v>473419.8448</v>
+        <v>473636.5489</v>
       </c>
       <c r="L43" s="1">
-        <v>12.3377</v>
+        <v>12.3434</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>16.1958</v>
@@ -16564,10 +16567,10 @@
         <v>700463.1154</v>
       </c>
       <c r="K44" s="1">
-        <v>459559.7936</v>
+        <v>459831.8772</v>
       </c>
       <c r="L44" s="1">
-        <v>12.2619</v>
+        <v>12.2692</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-2</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.4264</v>
@@ -16617,10 +16620,10 @@
         <v>718978.722</v>
       </c>
       <c r="K45" s="1">
-        <v>451666.9241</v>
+        <v>451970.5243</v>
       </c>
       <c r="L45" s="1">
-        <v>12.2098</v>
+        <v>12.218</v>
       </c>
       <c r="M45" s="1">
         <v>0.75</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>17.107</v>
@@ -16670,10 +16673,10 @@
         <v>779464.7635999999</v>
       </c>
       <c r="K46" s="1">
-        <v>462162.0085</v>
+        <v>462465.6087</v>
       </c>
       <c r="L46" s="1">
-        <v>12.2818</v>
+        <v>12.2899</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.8894</v>
@@ -16723,10 +16726,10 @@
         <v>781371.7709</v>
       </c>
       <c r="K47" s="1">
-        <v>455831.8492</v>
+        <v>456160.746</v>
       </c>
       <c r="L47" s="1">
-        <v>12.2336</v>
+        <v>12.2425</v>
       </c>
       <c r="M47" s="1">
         <v>1</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4004</v>
@@ -16776,10 +16779,10 @@
         <v>805812.2015</v>
       </c>
       <c r="K48" s="1">
-        <v>483577.8037</v>
+        <v>483906.7005</v>
       </c>
       <c r="L48" s="1">
-        <v>12.4313</v>
+        <v>12.4397</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>15.3877</v>
@@ -16829,10 +16832,10 @@
         <v>773943.031</v>
       </c>
       <c r="K49" s="1">
-        <v>522552.1219</v>
+        <v>522881.0187</v>
       </c>
       <c r="L49" s="1">
-        <v>12.6613</v>
+        <v>12.6692</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>14.6367</v>
@@ -16882,10 +16885,10 @@
         <v>749743.3526</v>
       </c>
       <c r="K50" s="1">
-        <v>584646.3438</v>
+        <v>584975.2406</v>
       </c>
       <c r="L50" s="1">
-        <v>12.9064</v>
+        <v>12.9136</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.0061</v>
@@ -16935,10 +16938,10 @@
         <v>679751.3364</v>
       </c>
       <c r="K51" s="1">
-        <v>639250.9062</v>
+        <v>639579.8029</v>
       </c>
       <c r="L51" s="1">
-        <v>13.04</v>
+        <v>13.0467</v>
       </c>
       <c r="M51" s="1">
         <v>0.5</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.835</v>
@@ -16988,10 +16991,10 @@
         <v>755540.7756000001</v>
       </c>
       <c r="K52" s="1">
-        <v>692689.103</v>
+        <v>693017.9998</v>
       </c>
       <c r="L52" s="1">
-        <v>13.0394</v>
+        <v>13.0456</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.4216</v>
@@ -17041,10 +17044,10 @@
         <v>797580.8846</v>
       </c>
       <c r="K53" s="1">
-        <v>717186.9264</v>
+        <v>717515.8232</v>
       </c>
       <c r="L53" s="1">
-        <v>13.0659</v>
+        <v>13.0719</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2404</v>
@@ -17094,10 +17097,10 @@
         <v>743753.3774</v>
       </c>
       <c r="K54" s="1">
-        <v>706373.9509000001</v>
+        <v>706746.0232000001</v>
       </c>
       <c r="L54" s="1">
-        <v>13.0468</v>
+        <v>13.0537</v>
       </c>
       <c r="M54" s="1">
         <v>0.4</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.382</v>
@@ -17147,10 +17150,10 @@
         <v>724232.8648</v>
       </c>
       <c r="K55" s="1">
-        <v>744705.9203</v>
+        <v>745077.9926</v>
       </c>
       <c r="L55" s="1">
-        <v>13.0579</v>
+        <v>13.0645</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.9583</v>
@@ -17200,10 +17203,10 @@
         <v>708997.3169</v>
       </c>
       <c r="K56" s="1">
-        <v>774196.8885999999</v>
+        <v>774568.961</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0319</v>
+        <v>13.0382</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2036</v>
@@ -17253,10 +17256,10 @@
         <v>733704.6899</v>
       </c>
       <c r="K57" s="1">
-        <v>784196.8885999999</v>
+        <v>784568.961</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0174</v>
+        <v>13.0235</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.9136</v>
@@ -17306,10 +17309,10 @@
         <v>808619.2533</v>
       </c>
       <c r="K58" s="1">
-        <v>794196.8885999999</v>
+        <v>794568.961</v>
       </c>
       <c r="L58" s="1">
-        <v>13.0068</v>
+        <v>13.0129</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.4338</v>
@@ -17359,10 +17362,10 @@
         <v>851460.2227</v>
       </c>
       <c r="K59" s="1">
-        <v>825884.166</v>
+        <v>826256.2383</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0042</v>
+        <v>13.01</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9657</v>
@@ -17412,10 +17415,10 @@
         <v>831408.1413</v>
       </c>
       <c r="K60" s="1">
-        <v>835884.166</v>
+        <v>836256.2383</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0095</v>
+        <v>13.0153</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3568</v>
@@ -17465,10 +17468,10 @@
         <v>884094.2166</v>
       </c>
       <c r="K61" s="1">
-        <v>845884.166</v>
+        <v>846256.2383</v>
       </c>
       <c r="L61" s="1">
-        <v>13.0093</v>
+        <v>13.015</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.2487</v>
@@ -17518,10 +17521,10 @@
         <v>886748.5671</v>
       </c>
       <c r="K62" s="1">
-        <v>873232.2083000001</v>
+        <v>873604.2807</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0207</v>
+        <v>13.0262</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.1605</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5014</v>
+        <v>12.5167</v>
       </c>
       <c r="E3" s="1">
-        <v>12.6431</v>
+        <v>12.6561</v>
       </c>
       <c r="F3" s="1">
-        <v>12.7901</v>
+        <v>12.8004</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0207</v>
+        <v>13.0262</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>273604.2807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0047</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.488</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2935</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1174</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.015</v>
       </c>
     </row>
   </sheetData>
